--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem5/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem5/67/word_level_predictions_67.xlsx
@@ -3541,7 +3541,7 @@
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G60" s="2" t="b">
@@ -3553,11 +3553,11 @@
         </is>
       </c>
       <c r="I60" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K60" s="2" t="b">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3605,11 +3605,11 @@
         </is>
       </c>
       <c r="I61" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K61" s="2" t="b">
@@ -3645,7 +3645,7 @@
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G62" s="2" t="b">
@@ -3657,11 +3657,11 @@
         </is>
       </c>
       <c r="I62" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K62" s="2" t="b">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G63" s="2" t="b">
@@ -3709,11 +3709,11 @@
         </is>
       </c>
       <c r="I63" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K63" s="2" t="b">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G64" s="2" t="b">
@@ -3761,11 +3761,11 @@
         </is>
       </c>
       <c r="I64" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K64" s="2" t="b">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6638,988 +6638,988 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
+      <c r="A120" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C120" s="2" t="inlineStr">
         <is>
           <t>After</t>
         </is>
       </c>
-      <c r="D120" t="n">
+      <c r="D120" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="E120" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="F120" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G120" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I120" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J120" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K120" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L120" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B121" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C121" s="2" t="inlineStr">
+        <is>
+          <t>powering</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E121" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F121" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G121" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J121" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L121" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C122" s="2" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E122" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G122" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I122" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J122" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K122" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L122" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B123" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C123" s="2" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E123" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F123" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G123" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L123" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>aircraft,</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E124" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F124" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G124" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L124" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B125" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C125" s="2" t="inlineStr">
+        <is>
+          <t>replace</t>
+        </is>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E125" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F125" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G125" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J125" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L125" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E126" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F126" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G126" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I126" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J126" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K126" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L126" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B127" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C127" s="2" t="inlineStr">
+        <is>
+          <t>propeller</t>
+        </is>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E127" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F127" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G127" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I127" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J127" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K127" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L127" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E128" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F128" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G128" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I128" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J128" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K128" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L128" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B129" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C129" s="2" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E129" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F129" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G129" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I129" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J129" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K129" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L129" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>beeping</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E130" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F130" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G130" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J130" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L130" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B131" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C131" s="2" t="inlineStr">
+        <is>
+          <t>ESC</t>
+        </is>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E131" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F131" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G131" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J131" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L131" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B132" s="2" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C132" s="2" t="inlineStr">
+        <is>
+          <t>If</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="E132" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G120" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I120" t="b">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K120" t="b">
-        <v>1</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
+      <c r="F132" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G132" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J132" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L132" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B133" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>powering</t>
-        </is>
-      </c>
-      <c r="D121" t="n">
-        <v>10</v>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G121" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I121" t="b">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K121" t="b">
-        <v>1</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
+      <c r="C133" s="2" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="E133" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F133" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G133" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J133" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L133" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B134" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D122" t="n">
-        <v>11</v>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G122" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I122" t="b">
-        <v>1</v>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K122" t="b">
-        <v>1</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>issue</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E134" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F134" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G134" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J134" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L134" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B135" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D123" t="n">
-        <v>12</v>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G123" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I123" t="b">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K123" t="b">
-        <v>1</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
+      <c r="C135" s="2" t="inlineStr">
+        <is>
+          <t>persists,</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="E135" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F135" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G135" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J135" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L135" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B136" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>aircraft,</t>
-        </is>
-      </c>
-      <c r="D124" t="n">
-        <v>13</v>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G124" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I124" t="b">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K124" t="b">
-        <v>1</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
+      <c r="C136" s="2" t="inlineStr">
+        <is>
+          <t>contact</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="E136" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F136" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G136" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J136" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L136" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B137" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>replace</t>
-        </is>
-      </c>
-      <c r="D125" t="n">
-        <v>14</v>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G125" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I125" t="b">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K125" t="b">
-        <v>1</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
+      <c r="C137" s="2" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="E137" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F137" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G137" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H137" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I137" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J137" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K137" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L137" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B138" s="2" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D126" t="n">
-        <v>15</v>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G126" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I126" t="b">
-        <v>1</v>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K126" t="b">
-        <v>1</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>5</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>propeller</t>
-        </is>
-      </c>
-      <c r="D127" t="n">
-        <v>16</v>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G127" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I127" t="b">
-        <v>1</v>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K127" t="b">
-        <v>1</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>5</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
-      </c>
-      <c r="D128" t="n">
-        <v>17</v>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G128" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I128" t="b">
-        <v>1</v>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K128" t="b">
-        <v>1</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>5</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D129" t="n">
-        <v>18</v>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G129" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I129" t="b">
-        <v>1</v>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K129" t="b">
-        <v>1</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>5</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>beeping</t>
-        </is>
-      </c>
-      <c r="D130" t="n">
-        <v>19</v>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G130" t="b">
-        <v>1</v>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I130" t="b">
-        <v>1</v>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K130" t="b">
-        <v>1</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>5</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="D131" t="n">
-        <v>20</v>
-      </c>
-      <c r="E131" t="inlineStr">
+      <c r="C138" s="2" t="inlineStr">
+        <is>
+          <t>Support</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="E138" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G131" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I131" t="b">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K131" t="b">
-        <v>1</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>5</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>If</t>
-        </is>
-      </c>
-      <c r="D132" t="n">
-        <v>21</v>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G132" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I132" t="b">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K132" t="b">
-        <v>1</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>5</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D133" t="n">
-        <v>22</v>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G133" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I133" t="b">
-        <v>1</v>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K133" t="b">
-        <v>1</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>5</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="D134" t="n">
-        <v>23</v>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G134" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I134" t="b">
-        <v>1</v>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K134" t="b">
-        <v>1</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>5</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>persists,</t>
-        </is>
-      </c>
-      <c r="D135" t="n">
-        <v>24</v>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G135" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I135" t="b">
-        <v>1</v>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K135" t="b">
-        <v>1</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>5</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>contact</t>
-        </is>
-      </c>
-      <c r="D136" t="n">
-        <v>25</v>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G136" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I136" t="b">
-        <v>1</v>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K136" t="b">
-        <v>1</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>5</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>DJI</t>
-        </is>
-      </c>
-      <c r="D137" t="n">
-        <v>26</v>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G137" t="b">
-        <v>1</v>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I137" t="b">
-        <v>1</v>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K137" t="b">
-        <v>1</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>5</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Support</t>
-        </is>
-      </c>
-      <c r="D138" t="n">
-        <v>27</v>
-      </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G138" t="b">
-        <v>1</v>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I138" t="b">
-        <v>1</v>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K138" t="b">
-        <v>1</v>
-      </c>
-      <c r="L138" t="inlineStr">
+      <c r="G138" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H138" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I138" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J138" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K138" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L138" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -8822,468 +8822,468 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="2" t="n">
+      <c r="A162" t="n">
         <v>6</v>
       </c>
-      <c r="B162" s="2" t="inlineStr">
+      <c r="B162" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C162" s="2" t="inlineStr">
+      <c r="C162" t="inlineStr">
         <is>
           <t>Move</t>
         </is>
       </c>
-      <c r="D162" s="2" t="n">
+      <c r="D162" t="n">
         <v>22</v>
       </c>
-      <c r="E162" s="2" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F162" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G162" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H162" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I162" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J162" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K162" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L162" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G162" t="b">
+        <v>1</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I162" t="b">
+        <v>1</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K162" t="b">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="2" t="n">
+      <c r="A163" t="n">
         <v>6</v>
       </c>
-      <c r="B163" s="2" t="inlineStr">
+      <c r="B163" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C163" s="2" t="inlineStr">
+      <c r="C163" t="inlineStr">
         <is>
           <t>away</t>
         </is>
       </c>
-      <c r="D163" s="2" t="n">
+      <c r="D163" t="n">
         <v>23</v>
       </c>
-      <c r="E163" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F163" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G163" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H163" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I163" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J163" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K163" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L163" s="2" t="inlineStr">
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G163" t="b">
+        <v>1</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I163" t="b">
+        <v>1</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K163" t="b">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="2" t="n">
+      <c r="A164" t="n">
         <v>6</v>
       </c>
-      <c r="B164" s="2" t="inlineStr">
+      <c r="B164" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C164" s="2" t="inlineStr">
+      <c r="C164" t="inlineStr">
         <is>
           <t>from</t>
         </is>
       </c>
-      <c r="D164" s="2" t="n">
+      <c r="D164" t="n">
         <v>24</v>
       </c>
-      <c r="E164" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F164" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G164" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H164" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I164" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J164" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K164" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L164" s="2" t="inlineStr">
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G164" t="b">
+        <v>1</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I164" t="b">
+        <v>1</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K164" t="b">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="2" t="n">
+      <c r="A165" t="n">
         <v>6</v>
       </c>
-      <c r="B165" s="2" t="inlineStr">
+      <c r="B165" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C165" s="2" t="inlineStr">
+      <c r="C165" t="inlineStr">
         <is>
           <t>sources</t>
         </is>
       </c>
-      <c r="D165" s="2" t="n">
+      <c r="D165" t="n">
         <v>25</v>
       </c>
-      <c r="E165" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F165" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G165" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H165" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I165" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J165" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K165" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L165" s="2" t="inlineStr">
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G165" t="b">
+        <v>1</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I165" t="b">
+        <v>1</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K165" t="b">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="2" t="n">
+      <c r="A166" t="n">
         <v>6</v>
       </c>
-      <c r="B166" s="2" t="inlineStr">
+      <c r="B166" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C166" s="2" t="inlineStr">
+      <c r="C166" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D166" s="2" t="n">
+      <c r="D166" t="n">
         <v>26</v>
       </c>
-      <c r="E166" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F166" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G166" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H166" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I166" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J166" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K166" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L166" s="2" t="inlineStr">
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G166" t="b">
+        <v>1</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I166" t="b">
+        <v>1</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K166" t="b">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="2" t="n">
+      <c r="A167" t="n">
         <v>6</v>
       </c>
-      <c r="B167" s="2" t="inlineStr">
+      <c r="B167" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C167" s="2" t="inlineStr">
+      <c r="C167" t="inlineStr">
         <is>
           <t>interference</t>
         </is>
       </c>
-      <c r="D167" s="2" t="n">
+      <c r="D167" t="n">
         <v>27</v>
       </c>
-      <c r="E167" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F167" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G167" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H167" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I167" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J167" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K167" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L167" s="2" t="inlineStr">
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G167" t="b">
+        <v>1</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I167" t="b">
+        <v>1</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K167" t="b">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="2" t="n">
+      <c r="A168" t="n">
         <v>6</v>
       </c>
-      <c r="B168" s="2" t="inlineStr">
+      <c r="B168" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C168" s="2" t="inlineStr">
+      <c r="C168" t="inlineStr">
         <is>
           <t>before</t>
         </is>
       </c>
-      <c r="D168" s="2" t="n">
+      <c r="D168" t="n">
         <v>28</v>
       </c>
-      <c r="E168" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F168" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G168" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H168" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I168" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J168" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K168" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L168" s="2" t="inlineStr">
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G168" t="b">
+        <v>1</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I168" t="b">
+        <v>1</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K168" t="b">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="2" t="n">
+      <c r="A169" t="n">
         <v>6</v>
       </c>
-      <c r="B169" s="2" t="inlineStr">
+      <c r="B169" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C169" s="2" t="inlineStr">
+      <c r="C169" t="inlineStr">
         <is>
           <t>attempting</t>
         </is>
       </c>
-      <c r="D169" s="2" t="n">
+      <c r="D169" t="n">
         <v>29</v>
       </c>
-      <c r="E169" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F169" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G169" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H169" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I169" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J169" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K169" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L169" s="2" t="inlineStr">
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G169" t="b">
+        <v>1</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I169" t="b">
+        <v>1</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K169" t="b">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="2" t="n">
+      <c r="A170" t="n">
         <v>6</v>
       </c>
-      <c r="B170" s="2" t="inlineStr">
+      <c r="B170" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C170" s="2" t="inlineStr">
+      <c r="C170" t="inlineStr">
         <is>
           <t>flight</t>
         </is>
       </c>
-      <c r="D170" s="2" t="n">
+      <c r="D170" t="n">
         <v>30</v>
       </c>
-      <c r="E170" s="2" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F170" s="2" t="inlineStr">
+      <c r="F170" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G170" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H170" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I170" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J170" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K170" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L170" s="2" t="inlineStr">
+      <c r="G170" t="b">
+        <v>1</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I170" t="b">
+        <v>1</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K170" t="b">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem5/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem5/67/word_level_predictions_67.xlsx
@@ -3541,7 +3541,7 @@
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G60" s="2" t="b">
@@ -3553,11 +3553,11 @@
         </is>
       </c>
       <c r="I60" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K60" s="2" t="b">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3605,11 +3605,11 @@
         </is>
       </c>
       <c r="I61" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K61" s="2" t="b">
@@ -3645,7 +3645,7 @@
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G62" s="2" t="b">
@@ -3657,11 +3657,11 @@
         </is>
       </c>
       <c r="I62" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K62" s="2" t="b">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G63" s="2" t="b">
@@ -3709,11 +3709,11 @@
         </is>
       </c>
       <c r="I63" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K63" s="2" t="b">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G64" s="2" t="b">
@@ -3761,11 +3761,11 @@
         </is>
       </c>
       <c r="I64" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K64" s="2" t="b">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6638,988 +6638,988 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
+      <c r="A120" t="n">
         <v>5</v>
       </c>
-      <c r="B120" s="2" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C120" s="2" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>After</t>
         </is>
       </c>
-      <c r="D120" s="2" t="n">
+      <c r="D120" t="n">
         <v>9</v>
       </c>
-      <c r="E120" s="2" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F120" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G120" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J120" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L120" s="2" t="inlineStr">
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G120" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I120" t="b">
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K120" t="b">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>5</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>powering</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>10</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G121" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K121" t="b">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>5</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>11</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G122" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I122" t="b">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K122" t="b">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>5</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>12</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G123" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I123" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>5</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>aircraft,</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>13</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>5</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>replace</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>14</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G125" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I125" t="b">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>5</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>15</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G126" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I126" t="b">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K126" t="b">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>5</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>propeller</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>16</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G127" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I127" t="b">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K127" t="b">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>5</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>17</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G128" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I128" t="b">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K128" t="b">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>5</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>18</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G129" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I129" t="b">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K129" t="b">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>5</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>beeping</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>19</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G130" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I130" t="b">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K130" t="b">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>5</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>ESC</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>20</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G131" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I131" t="b">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>5</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>If</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>21</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G132" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I132" t="b">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
+    <row r="133">
+      <c r="A133" t="n">
         <v>5</v>
       </c>
-      <c r="B121" s="2" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C121" s="2" t="inlineStr">
-        <is>
-          <t>powering</t>
-        </is>
-      </c>
-      <c r="D121" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E121" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F121" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G121" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L121" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>22</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G133" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I133" t="b">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K133" t="b">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
         <v>5</v>
       </c>
-      <c r="B122" s="2" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C122" s="2" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D122" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E122" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F122" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G122" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J122" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L122" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>issue</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>23</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G134" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I134" t="b">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K134" t="b">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
         <v>5</v>
       </c>
-      <c r="B123" s="2" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C123" s="2" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D123" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E123" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F123" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G123" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L123" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>persists,</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>24</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G135" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I135" t="b">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K135" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
         <v>5</v>
       </c>
-      <c r="B124" s="2" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C124" s="2" t="inlineStr">
-        <is>
-          <t>aircraft,</t>
-        </is>
-      </c>
-      <c r="D124" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E124" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F124" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G124" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L124" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>contact</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>25</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G136" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I136" t="b">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
         <v>5</v>
       </c>
-      <c r="B125" s="2" t="inlineStr">
+      <c r="B137" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C125" s="2" t="inlineStr">
-        <is>
-          <t>replace</t>
-        </is>
-      </c>
-      <c r="D125" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="E125" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F125" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G125" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L125" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>26</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G137" t="b">
+        <v>1</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I137" t="b">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K137" t="b">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
         <v>5</v>
       </c>
-      <c r="B126" s="2" t="inlineStr">
+      <c r="B138" t="inlineStr">
         <is>
           <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C126" s="2" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D126" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E126" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F126" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G126" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J126" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L126" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B127" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C127" s="2" t="inlineStr">
-        <is>
-          <t>propeller</t>
-        </is>
-      </c>
-      <c r="D127" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E127" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F127" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G127" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J127" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L127" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B128" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C128" s="2" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
-      </c>
-      <c r="D128" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="E128" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F128" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G128" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J128" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L128" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B129" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C129" s="2" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D129" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="E129" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F129" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G129" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J129" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L129" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B130" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C130" s="2" t="inlineStr">
-        <is>
-          <t>beeping</t>
-        </is>
-      </c>
-      <c r="D130" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="E130" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F130" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G130" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H130" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J130" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L130" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B131" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C131" s="2" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="D131" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="E131" s="2" t="inlineStr">
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Support</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>27</v>
+      </c>
+      <c r="E138" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F131" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G131" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J131" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L131" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B132" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C132" s="2" t="inlineStr">
-        <is>
-          <t>If</t>
-        </is>
-      </c>
-      <c r="D132" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="E132" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F132" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G132" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J132" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L132" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B133" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C133" s="2" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D133" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="E133" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F133" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G133" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J133" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L133" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B134" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C134" s="2" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="D134" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="E134" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F134" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G134" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J134" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L134" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B135" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C135" s="2" t="inlineStr">
-        <is>
-          <t>persists,</t>
-        </is>
-      </c>
-      <c r="D135" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="E135" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F135" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G135" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J135" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L135" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B136" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C136" s="2" t="inlineStr">
-        <is>
-          <t>contact</t>
-        </is>
-      </c>
-      <c r="D136" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="E136" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F136" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G136" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J136" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L136" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B137" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C137" s="2" t="inlineStr">
-        <is>
-          <t>DJI</t>
-        </is>
-      </c>
-      <c r="D137" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="E137" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F137" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G137" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H137" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I137" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J137" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K137" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L137" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B138" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C138" s="2" t="inlineStr">
-        <is>
-          <t>Support</t>
-        </is>
-      </c>
-      <c r="D138" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="E138" s="2" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F138" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G138" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H138" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I138" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J138" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K138" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L138" s="2" t="inlineStr">
+      <c r="G138" t="b">
+        <v>1</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I138" t="b">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K138" t="b">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -8822,468 +8822,468 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="n">
+      <c r="A162" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B162" t="inlineStr">
+      <c r="B162" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
+      <c r="C162" s="2" t="inlineStr">
         <is>
           <t>Move</t>
         </is>
       </c>
-      <c r="D162" t="n">
+      <c r="D162" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="E162" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G162" t="b">
-        <v>1</v>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I162" t="b">
-        <v>1</v>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K162" t="b">
-        <v>1</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F162" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G162" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H162" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I162" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J162" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K162" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L162" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="n">
+      <c r="A163" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B163" t="inlineStr">
+      <c r="B163" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
+      <c r="C163" s="2" t="inlineStr">
         <is>
           <t>away</t>
         </is>
       </c>
-      <c r="D163" t="n">
+      <c r="D163" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G163" t="b">
-        <v>1</v>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I163" t="b">
-        <v>1</v>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K163" t="b">
-        <v>1</v>
-      </c>
-      <c r="L163" t="inlineStr">
+      <c r="E163" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F163" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G163" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H163" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I163" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J163" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K163" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L163" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="n">
+      <c r="A164" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B164" t="inlineStr">
+      <c r="B164" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr">
+      <c r="C164" s="2" t="inlineStr">
         <is>
           <t>from</t>
         </is>
       </c>
-      <c r="D164" t="n">
+      <c r="D164" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G164" t="b">
-        <v>1</v>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I164" t="b">
-        <v>1</v>
-      </c>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K164" t="b">
-        <v>1</v>
-      </c>
-      <c r="L164" t="inlineStr">
+      <c r="E164" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F164" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G164" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H164" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I164" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J164" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K164" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L164" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="n">
+      <c r="A165" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B165" t="inlineStr">
+      <c r="B165" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr">
+      <c r="C165" s="2" t="inlineStr">
         <is>
           <t>sources</t>
         </is>
       </c>
-      <c r="D165" t="n">
+      <c r="D165" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G165" t="b">
-        <v>1</v>
-      </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I165" t="b">
-        <v>1</v>
-      </c>
-      <c r="J165" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K165" t="b">
-        <v>1</v>
-      </c>
-      <c r="L165" t="inlineStr">
+      <c r="E165" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F165" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G165" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H165" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I165" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J165" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K165" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L165" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="n">
+      <c r="A166" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B166" t="inlineStr">
+      <c r="B166" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr">
+      <c r="C166" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D166" t="n">
+      <c r="D166" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G166" t="b">
-        <v>1</v>
-      </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I166" t="b">
-        <v>1</v>
-      </c>
-      <c r="J166" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K166" t="b">
-        <v>1</v>
-      </c>
-      <c r="L166" t="inlineStr">
+      <c r="E166" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F166" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G166" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H166" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I166" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J166" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K166" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L166" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="n">
+      <c r="A167" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B167" t="inlineStr">
+      <c r="B167" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr">
+      <c r="C167" s="2" t="inlineStr">
         <is>
           <t>interference</t>
         </is>
       </c>
-      <c r="D167" t="n">
+      <c r="D167" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G167" t="b">
-        <v>1</v>
-      </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I167" t="b">
-        <v>1</v>
-      </c>
-      <c r="J167" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K167" t="b">
-        <v>1</v>
-      </c>
-      <c r="L167" t="inlineStr">
+      <c r="E167" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F167" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G167" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H167" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I167" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J167" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K167" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L167" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="n">
+      <c r="A168" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B168" t="inlineStr">
+      <c r="B168" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr">
+      <c r="C168" s="2" t="inlineStr">
         <is>
           <t>before</t>
         </is>
       </c>
-      <c r="D168" t="n">
+      <c r="D168" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G168" t="b">
-        <v>1</v>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I168" t="b">
-        <v>1</v>
-      </c>
-      <c r="J168" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K168" t="b">
-        <v>1</v>
-      </c>
-      <c r="L168" t="inlineStr">
+      <c r="E168" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F168" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G168" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H168" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I168" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J168" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K168" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L168" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="n">
+      <c r="A169" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B169" t="inlineStr">
+      <c r="B169" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
+      <c r="C169" s="2" t="inlineStr">
         <is>
           <t>attempting</t>
         </is>
       </c>
-      <c r="D169" t="n">
+      <c r="D169" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G169" t="b">
-        <v>1</v>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I169" t="b">
-        <v>1</v>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K169" t="b">
-        <v>1</v>
-      </c>
-      <c r="L169" t="inlineStr">
+      <c r="E169" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F169" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G169" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H169" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I169" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J169" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K169" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L169" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="n">
+      <c r="A170" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B170" t="inlineStr">
+      <c r="B170" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
+      <c r="C170" s="2" t="inlineStr">
         <is>
           <t>flight</t>
         </is>
       </c>
-      <c r="D170" t="n">
+      <c r="D170" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="E170" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="F170" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G170" t="b">
-        <v>1</v>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I170" t="b">
-        <v>1</v>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K170" t="b">
-        <v>1</v>
-      </c>
-      <c r="L170" t="inlineStr">
+      <c r="G170" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H170" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I170" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J170" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K170" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L170" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
